--- a/result_pysr/equations_manual.xlsx
+++ b/result_pysr/equations_manual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>density*(1.07484499541926e-8*density**3*(-0.36000234 + temperature/(1.5191836*density))**3*(-nu**2 + temperature)**3 - temperature**2/(nu/(density**3)))/(density**1.005 + 1.0e-16)</t>
+          <t>density*(-1.23339981076769e-5*temperature**3/(nu - (0.14483143 - cos(log(density*nu**2))**3)**9)**3 - 0.057114054)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-density*tan(2.052097e-5*nu**3*(temperature**2 - 2.28621425025181*cos(log(density) - sin(exp(Sigma)) + 0.22960478) + 0.32826197)/cos(density))/(density**1.005 + 1.0e-16)</t>
+          <t>density*(1.58929604892189e-5*(Sigma - (temperature + 2.19255627934952*(density/nu**3)**(3/2))/nu)**3 - 0.30571285*exp(-density/nu**3))/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-0.044732854*density*temperature*(density**3*(temperature - 0.32598716)**(3/2) - density + temperature + (-density - sqrt(nu) + nu/Sigma)**4)/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>density*(-0.0137211652977941*(density**3 + temperature)**3 - 0.19554488/(density**2 - nu + exp(Sigma)))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>density*sinh((density**3 + tan(sqrt(-density + nu)))*(-0.07560778*temperature**2 + 0.07560778*cos(log(density))))/(density**1.005 + 1.0e-16)</t>
+          <t>-0.2571835*density*temperature**2/((density**1.005 + 1.0e-16)*(Sigma**3*nu**3 - density))</t>
         </is>
       </c>
     </row>
